--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194530.2547727691</v>
+        <v>191798.6753109447</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12546908.50894457</v>
+        <v>12546908.50894456</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>121.9722865630709</v>
       </c>
       <c r="F2" t="n">
-        <v>140.5278112987052</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>22.33138074640286</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>211.9245712990573</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>162.3364906735235</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>115.409956236188</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>246.795623832921</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>76.94981712654037</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>169.0167291702126</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>166.1227091780948</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>170.2358922236793</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>128.2395870407137</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922704</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>4.019807611470446</v>
       </c>
       <c r="S13" t="n">
-        <v>69.82863813027149</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890387</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986293</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.97427419833703</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>103.1686991936215</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>22.6126310577748</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>982.8165910026955</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C2" t="n">
-        <v>613.8540740622839</v>
+        <v>177.1473116820522</v>
       </c>
       <c r="D2" t="n">
-        <v>613.8540740622839</v>
+        <v>177.1473116820522</v>
       </c>
       <c r="E2" t="n">
-        <v>613.8540740622839</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1759.555763042629</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1369.416431066817</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4398,40 +4398,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4492,43 +4492,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>557.4253753917264</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>557.4253753917264</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2070.717079250664</v>
+        <v>847.8148076117927</v>
       </c>
       <c r="C5" t="n">
-        <v>1954.141365880777</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2423.485734520778</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="W5" t="n">
-        <v>2070.717079250664</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X5" t="n">
-        <v>2070.717079250664</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y5" t="n">
-        <v>2070.717079250664</v>
+        <v>1234.414647675914</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>471.4038777286581</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>471.4038777286581</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>471.4038777286581</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>471.4038777286581</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>471.4038777286581</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286581</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286581</v>
+        <v>224.6669506791651</v>
       </c>
       <c r="V7" t="n">
-        <v>471.4038777286581</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>471.4038777286581</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>471.4038777286581</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>471.4038777286581</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1814.699639983856</v>
+        <v>1798.026066269124</v>
       </c>
       <c r="C8" t="n">
-        <v>1814.699639983856</v>
+        <v>1798.026066269124</v>
       </c>
       <c r="D8" t="n">
-        <v>1456.433941377106</v>
+        <v>1439.760367662374</v>
       </c>
       <c r="E8" t="n">
-        <v>1070.645688778862</v>
+        <v>1053.97211506413</v>
       </c>
       <c r="F8" t="n">
-        <v>659.659783989254</v>
+        <v>642.9862102745221</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>225.8984285109496</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>109.8675491160735</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>359.2310423874779</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>912.0443006336772</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1543.762111616989</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>2171.069779676835</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2341.238804993795</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4844,10 +4844,10 @@
         <v>2188.165398244936</v>
       </c>
       <c r="X8" t="n">
-        <v>1814.699639983856</v>
+        <v>2188.165398244936</v>
       </c>
       <c r="Y8" t="n">
-        <v>1814.699639983856</v>
+        <v>1798.026066269124</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>455.7391168319031</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>592.9687148475971</v>
       </c>
       <c r="M9" t="n">
-        <v>1441.490579173192</v>
+        <v>1233.514064314702</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1432.170805967367</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>331.3910118075189</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>331.3910118075189</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>331.3910118075189</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>183.4779182251257</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>183.4779182251257</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>620.8081818444795</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>620.8081818444795</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>620.8081818444795</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>331.3910118075189</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>331.3910118075189</v>
       </c>
       <c r="Y10" t="n">
-        <v>849.4473100711502</v>
+        <v>331.3910118075189</v>
       </c>
     </row>
     <row r="11">
@@ -5036,31 +5036,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.159972732779</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>576.8388927589107</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>407.9027098310038</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310038</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>407.9027098310038</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>261.0127623330935</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2442.902671851502</v>
       </c>
       <c r="S13" t="n">
-        <v>2376.429105670895</v>
+        <v>2260.047837506407</v>
       </c>
       <c r="T13" t="n">
-        <v>2156.827640693837</v>
+        <v>2040.446372529348</v>
       </c>
       <c r="U13" t="n">
-        <v>1867.752414038035</v>
+        <v>1751.371145873545</v>
       </c>
       <c r="V13" t="n">
-        <v>1613.067925832148</v>
+        <v>1496.686657667658</v>
       </c>
       <c r="W13" t="n">
-        <v>1323.650755795187</v>
+        <v>1207.269487630698</v>
       </c>
       <c r="X13" t="n">
-        <v>1095.661204897168</v>
+        <v>979.2799367326805</v>
       </c>
       <c r="Y13" t="n">
-        <v>874.8686257536381</v>
+        <v>758.4873575891504</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,19 +5273,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452619</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718135</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474262</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637304</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444888</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684175</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2366.028450684175</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>113.9333885650331</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5741,58 +5741,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121666</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121666</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580263</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6364,16 +6364,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6452,22 +6452,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,13 +6476,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,22 +6835,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>491.0125592675714</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6923,10 +6923,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,16 +7075,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,16 +7312,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7418,13 +7418,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,19 +7546,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7783,19 +7783,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627887</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>35.04072454780376</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>203.5259151506443</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8465,13 +8465,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>217.7061247386727</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>258.1828939084838</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>259.9580835091909</v>
       </c>
       <c r="F2" t="n">
-        <v>266.3482344430063</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22592,10 +22592,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>139.9694676364041</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22759,7 +22759,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>74.3573029429204</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>62.35543909865124</v>
       </c>
       <c r="S13" t="n">
-        <v>111.1976478713731</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>145.6085800303783</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459422</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>125.5054897610407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462256</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294768</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.8761406863</v>
+        <v>317255.8761406864</v>
       </c>
       <c r="C2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="E2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="F2" t="n">
         <v>343037.3048682526</v>
       </c>
-      <c r="F2" t="n">
-        <v>343037.3048682525</v>
-      </c>
       <c r="G2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="H2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="I2" t="n">
+        <v>343037.304868253</v>
+      </c>
+      <c r="J2" t="n">
+        <v>343037.304868253</v>
+      </c>
+      <c r="K2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="L2" t="n">
         <v>343037.3048682526</v>
-      </c>
-      <c r="H2" t="n">
-        <v>343037.3048682529</v>
-      </c>
-      <c r="I2" t="n">
-        <v>343037.3048682528</v>
-      </c>
-      <c r="J2" t="n">
-        <v>343037.3048682527</v>
-      </c>
-      <c r="K2" t="n">
-        <v>343037.3048682528</v>
-      </c>
-      <c r="L2" t="n">
-        <v>343037.3048682527</v>
       </c>
       <c r="M2" t="n">
         <v>343037.3048682527</v>
       </c>
       <c r="N2" t="n">
+        <v>343037.3048682529</v>
+      </c>
+      <c r="O2" t="n">
         <v>343037.3048682528</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>343037.3048682529</v>
-      </c>
-      <c r="P2" t="n">
-        <v>343037.3048682528</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,25 +26372,25 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808062</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682775</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682771</v>
+        <v>5677.536566682729</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682729</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682751</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5677.536566682749</v>
+      </c>
+      <c r="N4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-522938.6128876358</v>
+        <v>-523125.0062761746</v>
       </c>
       <c r="C6" t="n">
-        <v>56161.25866587777</v>
+        <v>56161.25866587771</v>
       </c>
       <c r="D6" t="n">
-        <v>-99642.54742791734</v>
+        <v>-99642.54742791745</v>
       </c>
       <c r="E6" t="n">
-        <v>-534815.4529031435</v>
+        <v>-534850.1908285791</v>
       </c>
       <c r="F6" t="n">
-        <v>236237.2384776626</v>
+        <v>236202.5005522268</v>
       </c>
       <c r="G6" t="n">
-        <v>236237.2384776628</v>
+        <v>236202.5005522271</v>
       </c>
       <c r="H6" t="n">
-        <v>236237.2384776629</v>
+        <v>236202.5005522273</v>
       </c>
       <c r="I6" t="n">
-        <v>236237.238477663</v>
+        <v>236202.5005522276</v>
       </c>
       <c r="J6" t="n">
-        <v>59814.01928506985</v>
+        <v>59779.28135963457</v>
       </c>
       <c r="K6" t="n">
-        <v>236237.238477663</v>
+        <v>236202.5005522271</v>
       </c>
       <c r="L6" t="n">
-        <v>236237.2384776628</v>
+        <v>236202.5005522272</v>
       </c>
       <c r="M6" t="n">
-        <v>112028.7277696044</v>
+        <v>111993.9898441686</v>
       </c>
       <c r="N6" t="n">
-        <v>236237.238477663</v>
+        <v>236202.5005522274</v>
       </c>
       <c r="O6" t="n">
-        <v>236237.238477663</v>
+        <v>236202.5005522273</v>
       </c>
       <c r="P6" t="n">
-        <v>236237.238477663</v>
+        <v>236202.5005522273</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,25 +26966,25 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036085</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>34.44624517256744</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>189.814158203616</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>63.3731647155137</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>249.8629355348195</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>80.95663463721388</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>90.35998513251054</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>83.12091415361536</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>246.794194767842</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>144.8049918515363</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>38.68118951385676</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28059,10 +28059,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>2.168102734382652e-12</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>750.6021172789111</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963288</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q18" t="n">
-        <v>328.9038320421828</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>688.8020111197787</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391496</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>316.2462973459351</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>339.3493584601592</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>536.8001439125376</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>56.4894619148576</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>286.9230409835658</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
@@ -35185,13 +35185,13 @@
         <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
         <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>285.9968516713566</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>439.4933346707109</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.587454168383</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>619.2604051955778</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396436</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164546</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q18" t="n">
-        <v>188.9220579561613</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>546.2057666753343</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999006</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558163</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>176.2645232599136</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>200.7949786802851</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>394.6661099905193</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
